--- a/biology/Botanique/Potamogeton_trichoides/Potamogeton_trichoides.xlsx
+++ b/biology/Botanique/Potamogeton_trichoides/Potamogeton_trichoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Potamogeton trichoides, de noms communs Potamot dense, Potamot serré[1], Potamot filiforme[2] ou Potamot capillaire[3], est une espèce de plantes aquatiques de la famille des Potamogetonaceae et du genre Potamogeton.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Potamogeton trichoides, de noms communs Potamot dense, Potamot serré, Potamot filiforme ou Potamot capillaire, est une espèce de plantes aquatiques de la famille des Potamogetonaceae et du genre Potamogeton.
 </t>
         </is>
       </c>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Le rhizome est rampant. La plante est assez variable. Les feuilles atteignant 4 x 1,5 cm, submergées, sont élargies-embrassantes à la base, ovales à lancéolées, obtuses à aiguës, très finement denticulées, à 3-5 nervures ; les stipules sont habituellement absentes[1].
-Appareil reproducteur
-Le pédoncule mesure 0,5-1.5cm, le fructifère étant recourbé. Les fruits mesurent 3 mm, comprimés, à bord dorsal caréné-aigu, à bec court[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rhizome est rampant. La plante est assez variable. Les feuilles atteignant 4 x 1,5 cm, submergées, sont élargies-embrassantes à la base, ovales à lancéolées, obtuses à aiguës, très finement denticulées, à 3-5 nervures ; les stipules sont habituellement absentes.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il pousse dans les ruisseaux, les fossés aquatiques, les mares, etc[1],[4].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pédoncule mesure 0,5-1.5cm, le fructifère étant recourbé. Les fruits mesurent 3 mm, comprimés, à bord dorsal caréné-aigu, à bec court.
 </t>
         </is>
       </c>
@@ -573,12 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante a une distribution eurasiatique[4].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse dans les ruisseaux, les fossés aquatiques, les mares, etc,.
 </t>
         </is>
       </c>
@@ -604,48 +627,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante a une distribution eurasiatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Potamogeton_trichoides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potamogeton_trichoides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Potamogeton condylocarpus Tausch, 1836
 Potamogeton monogynus Webb &amp; Berthel., 1847
 Potamogeton pusillus subsp. trichoides (Cham. &amp; Schltdl.) Bonnier &amp; Layens, 1894
 Potamogeton trichoides var. leiocarpus Asch., 1864
 Potamogeton trichoides var. monogynus Magnin, 1897
-Potamogeton tuberculatus Ten. &amp; Guss., 1842[2]</t>
+Potamogeton tuberculatus Ten. &amp; Guss., 1842</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Potamogeton_trichoides</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Potamogeton_trichoides</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Risques de confusion</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cette espèce peut notamment être confondue avec :
-Ruppia sp. (qui peut l'accompagner en milieu saumâtre[5]) ;
+Ruppia sp. (qui peut l'accompagner en milieu saumâtre) ;
 Potamogeton pectinatus.</t>
         </is>
       </c>
